--- a/inc/templates/template.xlsx
+++ b/inc/templates/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\bitacoraV2\inc\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\bitacorasf\inc\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,40 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
-  <si>
-    <t>GESTIÓN ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>GESTIONAR EQUIPOS DE CONMUTACION</t>
-  </si>
-  <si>
-    <t>GESTIONAR EQUIPOS DE DISTRIBUCION (TRANSPORTE)</t>
-  </si>
-  <si>
-    <t>GESTIONAR EQUIPOS DE DISTRIBUCION (ACCESO)</t>
-  </si>
-  <si>
-    <t>GESTIONAR EQUIPOS TERMINALES DE RED</t>
-  </si>
-  <si>
-    <t>GESTIONAR RED DE PAQUETES</t>
-  </si>
-  <si>
-    <t>GESTIONAR RED MULTISERVICIO</t>
-  </si>
-  <si>
-    <t>GESTIONAR SISTEMAS PERIFERICOS DE CONMUTACION TELEFONICA</t>
-  </si>
-  <si>
-    <t>GESTIONAR EQUIPOS DE TRANSMISION</t>
-  </si>
-  <si>
-    <t>COLABORACIÓN CON OTROS PROCESOS Y DEPENDENCIAS ICE</t>
-  </si>
-  <si>
-    <t>PERMISOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Total</t>
   </si>
@@ -107,71 +74,103 @@
     <t>Mantenimiento Preventivo</t>
   </si>
   <si>
-    <t>Ejecución de obras / órdenes</t>
-  </si>
-  <si>
-    <t>Trabajos Especiales</t>
-  </si>
-  <si>
-    <t>Sistemas Fijos</t>
-  </si>
-  <si>
-    <t>Sistemas Inalámbricos</t>
-  </si>
-  <si>
-    <t>Control de la Red</t>
-  </si>
-  <si>
     <t>RED TRANSPORTE</t>
   </si>
   <si>
-    <t>Plataformas y Multimedias</t>
-  </si>
-  <si>
-    <t>Electromecánica y Civil</t>
-  </si>
-  <si>
     <t>DCORS</t>
   </si>
   <si>
     <t>DGEAS</t>
   </si>
   <si>
-    <t>Sector Telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Sector Eléctrico</t>
-  </si>
-  <si>
-    <t>Administración Superior</t>
-  </si>
-  <si>
-    <t>Incapacidad / Cita Médica</t>
-  </si>
-  <si>
-    <t>Permisos asuntos ICE/ Gobierno</t>
-  </si>
-  <si>
-    <t>Estudio/Docencia/Capacitación</t>
-  </si>
-  <si>
-    <t>Vacaciones / Feriado</t>
-  </si>
-  <si>
-    <t>Descansos profilácticos (Almuerzo)</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Pruebas de Aceptación</t>
+  </si>
+  <si>
+    <t>Permisos I</t>
+  </si>
+  <si>
+    <t>Permisos II</t>
+  </si>
+  <si>
+    <t>Colaboración con Otros Procesos y Dependencias ICE</t>
+  </si>
+  <si>
+    <t>GESTION EQUIPOS DE DISTRIBUCION (ACCESO)</t>
+  </si>
+  <si>
+    <t>GESTION EQUIPOS TERMINALES DE RED</t>
+  </si>
+  <si>
+    <t>GESTION RED DE PAQUETES</t>
+  </si>
+  <si>
+    <t>GESTION RED MULTISERVICIO</t>
+  </si>
+  <si>
+    <t>GESTION SISTEMAS PERIFERICOS DE CONMUTACION TELEFONICA</t>
+  </si>
+  <si>
+    <t>GESTION EQUIPOS DE TRANSMISION</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS</t>
+  </si>
+  <si>
+    <t>GESTION EQUIPOS DE CONMUTACION</t>
+  </si>
+  <si>
+    <t>GESTION EQUIPOS DE DISTRIBUCION (TRANSPORTE)</t>
+  </si>
+  <si>
+    <t>SISTEMAS INALAMBRICOS</t>
+  </si>
+  <si>
+    <t>CONTROL DE LA RED</t>
+  </si>
+  <si>
+    <t>PLATAFORMAS Y MULTIMEDIAS</t>
+  </si>
+  <si>
+    <t>ELECTROMECANICA Y CIVIL</t>
+  </si>
+  <si>
+    <t>SECTOR TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>SECTOR ELECTRICIDAD</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN SUPERIOR</t>
+  </si>
+  <si>
+    <t>PERMISOS ASUNTOS ICE
+ASUNTOS DEL GOBIERNO</t>
+  </si>
+  <si>
+    <t>ESTUDIO - DOCENCIA
+CAPACITACIÓN</t>
+  </si>
+  <si>
+    <t>ALMUERZO</t>
+  </si>
+  <si>
+    <t>INCAPACIDAD - CITA MÉDICA</t>
+  </si>
+  <si>
+    <t>VACACIONES - FERIADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +201,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,8 +213,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,25 +263,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD44B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFCD5FB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +310,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -286,10 +320,32 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -298,33 +354,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -341,113 +377,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,6 +511,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCD5FB5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -738,9 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:CI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -756,358 +810,413 @@
     <col min="10" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" style="2" customWidth="1"/>
-    <col min="13" max="61" width="5.7109375" style="2" customWidth="1"/>
-    <col min="62" max="62" width="6.85546875" style="2" customWidth="1"/>
-    <col min="63" max="63" width="104.140625" style="2" customWidth="1"/>
-    <col min="64" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="56" width="8.7109375" style="2" customWidth="1"/>
+    <col min="57" max="57" width="58.5703125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="4.42578125" style="2" customWidth="1"/>
+    <col min="59" max="59" width="4.28515625" style="2" customWidth="1"/>
+    <col min="60" max="60" width="4.140625" style="2" customWidth="1"/>
+    <col min="61" max="61" width="4.42578125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="3.5703125" style="2" customWidth="1"/>
+    <col min="63" max="80" width="3.7109375" style="2" customWidth="1"/>
+    <col min="81" max="86" width="5.7109375" style="2" customWidth="1"/>
+    <col min="87" max="87" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="BE1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1" s="12"/>
+    </row>
+    <row r="2" spans="1:87" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="27" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="35" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="27" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="35" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="27" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="26" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="27" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="28" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="31" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="25" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="4"/>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
     </row>
-    <row r="2" spans="1:63" ht="153.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="21"/>
+    <row r="3" spans="1:87" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+  <mergeCells count="6">
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="AN1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
   </mergeCells>
   <conditionalFormatting sqref="BJ3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
